--- a/doc/Documents autres évaluation/EvalRepo_samuel-in-run.xlsx
+++ b/doc/Documents autres évaluation/EvalRepo_samuel-in-run.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TEMP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github_Repos\Bataille-Navale\doc\Documents autres évaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFFCAD6A-F894-4FA6-8A74-C9A5ABC33A61}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4230" yWindow="2715" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5160" yWindow="2715" windowWidth="21600" windowHeight="11385" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -34,12 +33,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Utilisateur de Microsoft Office</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -66,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="D8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -239,7 +238,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -600,11 +599,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -720,7 +719,7 @@
       </c>
       <c r="G4" s="7">
         <f t="shared" ref="G4:G18" ca="1" si="0">MROUND(3*RAND()+3,0.5)</f>
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="H4" s="7">
         <f t="shared" ref="H4:H18" ca="1" si="1">MROUND(2*RAND()+3,0.5)</f>
@@ -728,11 +727,11 @@
       </c>
       <c r="I4" s="7">
         <f t="shared" ref="I4:I18" ca="1" si="2">MROUND(1*RAND()+3,0.5)</f>
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="J4" s="7">
         <f t="shared" ref="J4:J18" ca="1" si="3">MROUND(5*RAND()+1,0.5)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K4">
         <v>6</v>
@@ -792,7 +791,7 @@
       </c>
       <c r="J6" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="K6" t="s">
         <v>42</v>
@@ -810,19 +809,19 @@
       </c>
       <c r="G7" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="H7" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="I7" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="J7" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="L7" t="s">
         <v>40</v>
@@ -846,7 +845,7 @@
       </c>
       <c r="I8" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="J8" s="7">
         <v>1</v>
@@ -867,7 +866,7 @@
       </c>
       <c r="G9" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="H9" s="7">
         <f t="shared" ca="1" si="1"/>
@@ -875,11 +874,11 @@
       </c>
       <c r="I9" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="J9" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -923,19 +922,19 @@
       </c>
       <c r="G11" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="H11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="I11" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="J11" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="K11">
         <v>6</v>
@@ -1023,19 +1022,19 @@
       </c>
       <c r="G15" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="H15" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="I15" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="J15" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1053,22 +1052,22 @@
       </c>
       <c r="G16" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="H16" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="I16" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="J16" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>20</v>
       </c>
@@ -1080,22 +1079,22 @@
       </c>
       <c r="G17" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="H17" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I17" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="J17" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1110,25 +1109,25 @@
       </c>
       <c r="G18" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="H18" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="I18" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="J18" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K18">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>23</v>
       </c>
@@ -1150,11 +1149,11 @@
       <c r="J19" s="7">
         <v>1</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>24</v>
       </c>
@@ -1177,7 +1176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>25</v>
       </c>
@@ -1200,34 +1199,34 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
         <v>36</v>
       </c>
       <c r="G23" s="7">
         <f ca="1">MROUND(SUMPRODUCT($C2:$C21,G2:G21)/(SUM($C2:$C21)*6)*5+1,0.1)</f>
-        <v>4.8000000000000007</v>
+        <v>4.6000000000000005</v>
       </c>
       <c r="H23" s="7">
         <f ca="1">MROUND(SUMPRODUCT($C2:$C21,H2:H21)/(SUM($C2:$C21)*6)*5+1,0.1)</f>
-        <v>4.6000000000000005</v>
+        <v>4.5</v>
       </c>
       <c r="I23" s="7">
         <f ca="1">MROUND(SUMPRODUCT($C2:$C21,I2:I21)/(SUM($C2:$C21)*6)*5+1,0.1)</f>
-        <v>3.8000000000000003</v>
+        <v>3.9000000000000004</v>
       </c>
       <c r="J23" s="7">
         <f ca="1">MROUND(SUMPRODUCT($C2:$C21,J2:J21)/(SUM($C2:$C21)*6)*5+1,0.1)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
         <v>37</v>
       </c>
       <c r="G24" s="7">
         <f ca="1">MROUND(SUMPRODUCT($C2:$C21,G2:G21)/(SUM($C2:$C21)*6)*5+1,0.5)</f>
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="H24" s="7">
         <f ca="1">MROUND(SUMPRODUCT($C2:$C21,H2:H21)/(SUM($C2:$C21)*6)*5+1,0.5)</f>
@@ -1239,7 +1238,7 @@
       </c>
       <c r="J24" s="7">
         <f ca="1">MROUND(SUMPRODUCT($C2:$C21,J2:J21)/(SUM($C2:$C21)*6)*5+1,0.5)</f>
-        <v>4</v>
+        <v>3.5</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Documents autres évaluation/EvalRepo_samuel-in-run.xlsx
+++ b/doc/Documents autres évaluation/EvalRepo_samuel-in-run.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5160" yWindow="2715" windowWidth="21600" windowHeight="11385" tabRatio="500"/>
+    <workbookView xWindow="6090" yWindow="2715" windowWidth="21600" windowHeight="11385" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
   <si>
     <t>Critère</t>
   </si>
@@ -233,6 +233,9 @@
   </si>
   <si>
     <t>rajouter numero</t>
+  </si>
+  <si>
+    <t>enlever code carrel et le rajouter comme sources d'infos pour créer grille</t>
   </si>
 </sst>
 </file>
@@ -264,7 +267,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -283,6 +286,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -296,7 +305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -320,6 +329,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -603,7 +613,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -656,7 +666,7 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2">
@@ -682,7 +692,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2">
@@ -708,7 +718,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="B4" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="2">
@@ -719,26 +729,26 @@
       </c>
       <c r="G4" s="7">
         <f t="shared" ref="G4:G18" ca="1" si="0">MROUND(3*RAND()+3,0.5)</f>
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="H4" s="7">
         <f t="shared" ref="H4:H18" ca="1" si="1">MROUND(2*RAND()+3,0.5)</f>
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="I4" s="7">
         <f t="shared" ref="I4:I18" ca="1" si="2">MROUND(1*RAND()+3,0.5)</f>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="J4" s="7">
         <f t="shared" ref="J4:J18" ca="1" si="3">MROUND(5*RAND()+1,0.5)</f>
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="K4">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="B5" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="2">
@@ -749,7 +759,7 @@
       </c>
       <c r="G5" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="H5" s="7">
         <f t="shared" ca="1" si="1"/>
@@ -757,18 +767,18 @@
       </c>
       <c r="I5" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="J5" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="B6" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="2">
@@ -779,26 +789,26 @@
       </c>
       <c r="G6" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="H6" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="I6" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J6" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="K6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="B7" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="2">
@@ -809,11 +819,11 @@
       </c>
       <c r="G7" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="H7" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I7" s="7">
         <f t="shared" ca="1" si="2"/>
@@ -821,14 +831,14 @@
       </c>
       <c r="J7" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="L7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="B8" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="2">
@@ -845,7 +855,7 @@
       </c>
       <c r="I8" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="J8" s="7">
         <v>1</v>
@@ -855,7 +865,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="B9" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="2">
@@ -866,26 +876,26 @@
       </c>
       <c r="G9" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="H9" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="I9" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J9" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="2">
@@ -911,7 +921,7 @@
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="2">
@@ -922,26 +932,26 @@
       </c>
       <c r="G11" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="H11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="I11" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="J11" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="K11">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="B12" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="2">
@@ -965,7 +975,7 @@
       <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="B13" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="2">
@@ -988,7 +998,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="B14" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="2">
@@ -1026,22 +1036,22 @@
       </c>
       <c r="H15" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="I15" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="J15" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="2">
@@ -1052,23 +1062,26 @@
       </c>
       <c r="G16" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H16" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="I16" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="J16" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>4.5</v>
+      </c>
+      <c r="L16" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="B17" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="2">
@@ -1079,11 +1092,11 @@
       </c>
       <c r="G17" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H17" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I17" s="7">
         <f t="shared" ca="1" si="2"/>
@@ -1091,14 +1104,14 @@
       </c>
       <c r="J17" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>4.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="2">
@@ -1109,26 +1122,26 @@
       </c>
       <c r="G18" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="H18" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="I18" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="J18" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K18">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+      <c r="B19" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="2">
@@ -1154,7 +1167,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+      <c r="B20" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="2">
@@ -1177,7 +1190,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+      <c r="B21" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="2">
@@ -1205,7 +1218,7 @@
       </c>
       <c r="G23" s="7">
         <f ca="1">MROUND(SUMPRODUCT($C2:$C21,G2:G21)/(SUM($C2:$C21)*6)*5+1,0.1)</f>
-        <v>4.6000000000000005</v>
+        <v>4.5</v>
       </c>
       <c r="H23" s="7">
         <f ca="1">MROUND(SUMPRODUCT($C2:$C21,H2:H21)/(SUM($C2:$C21)*6)*5+1,0.1)</f>
@@ -1217,7 +1230,7 @@
       </c>
       <c r="J23" s="7">
         <f ca="1">MROUND(SUMPRODUCT($C2:$C21,J2:J21)/(SUM($C2:$C21)*6)*5+1,0.1)</f>
-        <v>3.7</v>
+        <v>3.8000000000000003</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -1238,7 +1251,7 @@
       </c>
       <c r="J24" s="7">
         <f ca="1">MROUND(SUMPRODUCT($C2:$C21,J2:J21)/(SUM($C2:$C21)*6)*5+1,0.5)</f>
-        <v>3.5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Documents autres évaluation/EvalRepo_samuel-in-run.xlsx
+++ b/doc/Documents autres évaluation/EvalRepo_samuel-in-run.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TEMP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_Samuel_01\Documents\GitHub\BN-SRD-Bataille-Navale\doc\Documents autres évaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFFCAD6A-F894-4FA6-8A74-C9A5ABC33A61}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E70ACAC-50BA-496F-ACBF-0AD55D8DA141}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4230" yWindow="2715" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2370" yWindow="3900" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
   <si>
     <t>Critère</t>
   </si>
@@ -234,6 +234,9 @@
   </si>
   <si>
     <t>rajouter numero</t>
+  </si>
+  <si>
+    <t>enlever code carrel et le rajouter comme sources d'infos pour créer grille</t>
   </si>
 </sst>
 </file>
@@ -265,7 +268,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -284,6 +287,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -297,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -321,6 +330,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -603,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -657,7 +667,7 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2">
@@ -683,7 +693,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="B3" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2">
@@ -709,7 +719,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="B4" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="2">
@@ -720,11 +730,11 @@
       </c>
       <c r="G4" s="7">
         <f t="shared" ref="G4:G18" ca="1" si="0">MROUND(3*RAND()+3,0.5)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H4" s="7">
         <f t="shared" ref="H4:H18" ca="1" si="1">MROUND(2*RAND()+3,0.5)</f>
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="I4" s="7">
         <f t="shared" ref="I4:I18" ca="1" si="2">MROUND(1*RAND()+3,0.5)</f>
@@ -732,14 +742,14 @@
       </c>
       <c r="J4" s="7">
         <f t="shared" ref="J4:J18" ca="1" si="3">MROUND(5*RAND()+1,0.5)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K4">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="B5" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="2">
@@ -750,7 +760,7 @@
       </c>
       <c r="G5" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="H5" s="7">
         <f t="shared" ca="1" si="1"/>
@@ -762,14 +772,14 @@
       </c>
       <c r="J5" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="K5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="B6" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="2">
@@ -780,26 +790,26 @@
       </c>
       <c r="G6" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="H6" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="I6" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J6" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="K6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="B7" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="2">
@@ -810,7 +820,7 @@
       </c>
       <c r="G7" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="H7" s="7">
         <f t="shared" ca="1" si="1"/>
@@ -822,14 +832,14 @@
       </c>
       <c r="J7" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="L7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="B8" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="2">
@@ -856,7 +866,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="B9" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="2">
@@ -867,26 +877,26 @@
       </c>
       <c r="G9" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="H9" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="I9" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="J9" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="2">
@@ -912,7 +922,7 @@
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="2">
@@ -923,7 +933,7 @@
       </c>
       <c r="G11" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="H11" s="7">
         <f t="shared" ca="1" si="1"/>
@@ -931,18 +941,18 @@
       </c>
       <c r="I11" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="J11" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="K11">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="B12" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="2">
@@ -966,7 +976,7 @@
       <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="B13" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="2">
@@ -989,7 +999,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="B14" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="2">
@@ -1023,7 +1033,7 @@
       </c>
       <c r="G15" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="H15" s="7">
         <f t="shared" ca="1" si="1"/>
@@ -1031,18 +1041,18 @@
       </c>
       <c r="I15" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J15" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="2">
@@ -1053,11 +1063,11 @@
       </c>
       <c r="G16" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="H16" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="I16" s="7">
         <f t="shared" ca="1" si="2"/>
@@ -1065,11 +1075,14 @@
       </c>
       <c r="J16" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+        <v>4.5</v>
+      </c>
+      <c r="L16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="2">
@@ -1080,11 +1093,11 @@
       </c>
       <c r="G17" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="H17" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I17" s="7">
         <f t="shared" ca="1" si="2"/>
@@ -1092,14 +1105,14 @@
       </c>
       <c r="J17" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="2">
@@ -1110,26 +1123,26 @@
       </c>
       <c r="G18" s="7">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="H18" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I18" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="J18" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K18">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="2">
@@ -1150,12 +1163,12 @@
       <c r="J19" s="7">
         <v>1</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="2">
@@ -1177,8 +1190,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="2">
@@ -1200,34 +1213,34 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
         <v>36</v>
       </c>
       <c r="G23" s="7">
         <f ca="1">MROUND(SUMPRODUCT($C2:$C21,G2:G21)/(SUM($C2:$C21)*6)*5+1,0.1)</f>
-        <v>4.8000000000000007</v>
+        <v>4.7</v>
       </c>
       <c r="H23" s="7">
         <f ca="1">MROUND(SUMPRODUCT($C2:$C21,H2:H21)/(SUM($C2:$C21)*6)*5+1,0.1)</f>
-        <v>4.6000000000000005</v>
+        <v>4.5</v>
       </c>
       <c r="I23" s="7">
         <f ca="1">MROUND(SUMPRODUCT($C2:$C21,I2:I21)/(SUM($C2:$C21)*6)*5+1,0.1)</f>
-        <v>3.8000000000000003</v>
+        <v>4</v>
       </c>
       <c r="J23" s="7">
         <f ca="1">MROUND(SUMPRODUCT($C2:$C21,J2:J21)/(SUM($C2:$C21)*6)*5+1,0.1)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3.8000000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
         <v>37</v>
       </c>
       <c r="G24" s="7">
         <f ca="1">MROUND(SUMPRODUCT($C2:$C21,G2:G21)/(SUM($C2:$C21)*6)*5+1,0.5)</f>
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="H24" s="7">
         <f ca="1">MROUND(SUMPRODUCT($C2:$C21,H2:H21)/(SUM($C2:$C21)*6)*5+1,0.5)</f>
